--- a/AKTUELL/Sopra Tagebuch DdD.xlsx
+++ b/AKTUELL/Sopra Tagebuch DdD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>Nutzungskonzept, Mockups beschrieben, Zusammensetzen des Dokuments</t>
+  </si>
+  <si>
+    <t>Angefangen mit Klassendiagramm</t>
+  </si>
+  <si>
+    <t>Klassendiagramm erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operationen gefiltert und besprochen sowie erste Operationen in einheitlichem Format erstellt </t>
+  </si>
+  <si>
+    <t>Klassendiagramm erweitert, Operationen hinzugefügt</t>
+  </si>
+  <si>
+    <t>Operationen hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -864,7 +879,7 @@
               <a:latin typeface="Arial" panose="00000000000000000000" charset="0"/>
               <a:ea typeface="Arial" panose="00000000000000000000" charset="0"/>
             </a:rPr>
-            <a:t>19.11.2014</a:t>
+            <a:t>11.12.2014</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1235,7 +1250,7 @@
   <dimension ref="A1:IV3463"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1915,145 +1930,209 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="21" customFormat="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="34"/>
+      <c r="A22" s="22">
+        <v>41980</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="40">
+        <v>1</v>
+      </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="34"/>
+      <c r="A23" s="22">
+        <v>41981</v>
+      </c>
+      <c r="B23" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>11</v>
+      </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="40" t="str">
-        <f t="shared" ref="G23:G35" si="1">IF(ISBLANK(D23)," ",C23-B23)</f>
+      <c r="F23" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="40">
+        <v>2</v>
+      </c>
+      <c r="H23" s="40" t="str">
+        <f t="shared" ref="H23:H35" si="1">IF(ISBLANK(E23)," ",C23-B23)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H23" s="40" t="str">
-        <f t="shared" ref="H23:H35" si="2">IF(ISBLANK(E23)," ",C23-B23)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I23" s="40" t="str">
-        <f t="shared" ref="I23:I35" si="3">IF(ISBLANK(F23)," ",C23-B23)</f>
-        <v xml:space="preserve"> </v>
+      <c r="I23" s="40">
+        <v>2</v>
       </c>
       <c r="J23" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="44"/>
+        <v>4</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:11" s="21" customFormat="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="40" t="str">
+      <c r="A24" s="22">
+        <v>41981</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="H24" s="40">
+        <v>2</v>
+      </c>
+      <c r="I24" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="J24" s="39">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="21" customFormat="1">
+      <c r="A25" s="22">
+        <v>41982</v>
+      </c>
+      <c r="B25" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="40">
+        <v>2</v>
+      </c>
+      <c r="H25" s="40">
+        <v>2</v>
+      </c>
+      <c r="I25" s="40">
+        <v>2</v>
+      </c>
+      <c r="J25" s="39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="21" customFormat="1">
+      <c r="A26" s="22">
+        <v>41982</v>
+      </c>
+      <c r="B26" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="40">
+        <v>1</v>
+      </c>
+      <c r="H26" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H24" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I24" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="44"/>
-    </row>
-    <row r="25" spans="1:11" s="21" customFormat="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H25" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I25" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J25" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="44"/>
-    </row>
-    <row r="26" spans="1:11" s="21" customFormat="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H26" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="I26" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I26:I35" si="2">IF(ISBLANK(F26)," ",C26-B26)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J26" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="1:11" s="21" customFormat="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H27" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I27" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+      <c r="A27" s="22">
+        <v>41983</v>
+      </c>
+      <c r="B27" s="23">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="40">
+        <v>5.3</v>
+      </c>
+      <c r="H27" s="40">
+        <v>5.3</v>
+      </c>
+      <c r="I27" s="40">
+        <v>5.3</v>
       </c>
       <c r="J27" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="44"/>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:11" s="21" customFormat="1">
       <c r="A28" s="22"/>
@@ -2063,15 +2142,15 @@
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="40" t="str">
+        <f t="shared" ref="G27:G35" si="3">IF(ISBLANK(D28)," ",C28-B28)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H28" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H28" s="40" t="str">
+      <c r="I28" s="40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I28" s="40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J28" s="39">
@@ -2088,15 +2167,15 @@
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H29" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H29" s="40" t="str">
+      <c r="I29" s="40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I29" s="40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J29" s="39">
@@ -2113,15 +2192,15 @@
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H30" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H30" s="40" t="str">
+      <c r="I30" s="40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I30" s="40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J30" s="39">
@@ -2138,15 +2217,15 @@
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H31" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H31" s="40" t="str">
+      <c r="I31" s="40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I31" s="40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J31" s="39">
@@ -2163,15 +2242,15 @@
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H32" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H32" s="40" t="str">
+      <c r="I32" s="40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I32" s="40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J32" s="39">
@@ -2188,15 +2267,15 @@
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
       <c r="G33" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H33" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H33" s="40" t="str">
+      <c r="I33" s="40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I33" s="40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J33" s="39">
@@ -2213,15 +2292,15 @@
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
       <c r="G34" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H34" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H34" s="40" t="str">
+      <c r="I34" s="40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I34" s="40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J34" s="39">
@@ -2238,15 +2317,15 @@
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
       <c r="G35" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H35" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H35" s="40" t="str">
+      <c r="I35" s="40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I35" s="40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J35" s="39">
@@ -2266,19 +2345,19 @@
       <c r="F36" s="28"/>
       <c r="G36" s="31">
         <f>SUM(G4:G35)</f>
-        <v>48</v>
+        <v>61.8</v>
       </c>
       <c r="H36" s="32">
         <f>SUM(H4:H35)</f>
-        <v>43.5</v>
+        <v>52.8</v>
       </c>
       <c r="I36" s="32">
         <f>SUM(I4:I35)</f>
-        <v>50</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="J36" s="33">
         <f>SUM(J4:J35)</f>
-        <v>141.5</v>
+        <v>174.20000000000002</v>
       </c>
       <c r="K36" s="29"/>
     </row>

--- a/AKTUELL/Sopra Tagebuch DdD.xlsx
+++ b/AKTUELL/Sopra Tagebuch DdD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Operationen hinzugefügt</t>
+  </si>
+  <si>
+    <t>Randbedinungen verfasst</t>
+  </si>
+  <si>
+    <t>Umstrukturiert, Bilder überarbeitet</t>
+  </si>
+  <si>
+    <t>Zusammenfassung und überarbeitung des Pflichtenhefts</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1258,8 @@
   </sheetPr>
   <dimension ref="A1:IV3463"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="129" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2135,19 +2144,23 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="21" customFormat="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="22">
+        <v>42008</v>
+      </c>
+      <c r="B28" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="E28" s="34" t="s">
+        <v>11</v>
+      </c>
       <c r="F28" s="34"/>
-      <c r="G28" s="40" t="str">
-        <f t="shared" ref="G27:G35" si="3">IF(ISBLANK(D28)," ",C28-B28)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H28" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40">
+        <v>2</v>
       </c>
       <c r="I28" s="40" t="str">
         <f t="shared" si="2"/>
@@ -2155,59 +2168,81 @@
       </c>
       <c r="J28" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="44"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="42" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="21" customFormat="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="A29" s="22">
+        <v>42010</v>
+      </c>
+      <c r="B29" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="F29" s="45" t="s">
+        <v>11</v>
+      </c>
       <c r="G29" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G29:G35" si="3">IF(ISBLANK(D29)," ",C29-B29)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H29" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I29" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+      <c r="I29" s="40">
+        <v>2</v>
       </c>
       <c r="J29" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="44"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="1:11" s="21" customFormat="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H30" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I30" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+      <c r="A30" s="22">
+        <v>42011</v>
+      </c>
+      <c r="B30" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="40">
+        <v>2</v>
+      </c>
+      <c r="H30" s="40">
+        <v>2</v>
+      </c>
+      <c r="I30" s="40">
+        <v>2</v>
       </c>
       <c r="J30" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="44"/>
+        <v>6</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" spans="1:11" s="21" customFormat="1">
       <c r="A31" s="22"/>
@@ -2345,19 +2380,19 @@
       <c r="F36" s="28"/>
       <c r="G36" s="31">
         <f>SUM(G4:G35)</f>
-        <v>61.8</v>
+        <v>63.8</v>
       </c>
       <c r="H36" s="32">
         <f>SUM(H4:H35)</f>
-        <v>52.8</v>
+        <v>56.8</v>
       </c>
       <c r="I36" s="32">
         <f>SUM(I4:I35)</f>
-        <v>59.599999999999994</v>
+        <v>63.599999999999994</v>
       </c>
       <c r="J36" s="33">
         <f>SUM(J4:J35)</f>
-        <v>174.20000000000002</v>
+        <v>184.20000000000002</v>
       </c>
       <c r="K36" s="29"/>
     </row>
